--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
-    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="見積書" sheetId="3" r:id="rId2"/>
+    <sheet name="納品書" sheetId="4" r:id="rId3"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -232,6 +234,98 @@
   </si>
   <si>
     <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←　today</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←　ctrl + ;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号:</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積り申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミツモ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品番号:</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要:</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -239,7 +333,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,21 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -291,8 +374,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +418,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,34 +485,83 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -399,6 +588,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -709,9 +903,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="E4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="16">
+        <v>44963</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",(VLOOKUP($A11,テーブル1[#All],2,FALSE)))</f>
+        <v>折り畳みテーブル</v>
+      </c>
+      <c r="C11" s="11">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[#All],3,FALSE),"")</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="11">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[#All],2,FALSE),"")</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="11">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[#All],3,FALSE),"")</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[#All],2,FALSE),"")</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="11">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[#All],3,FALSE),"")</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[#All],2,FALSE),"")</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="11">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[#All],3,FALSE),"")</f>
+        <v>26700</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[#All],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[#All],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[#All],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[#All],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="13">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="14">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="E4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="16">
+        <v>44963</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",(VLOOKUP($A11,テーブル1[#All],2,FALSE)))</f>
+        <v>折り畳みテーブル</v>
+      </c>
+      <c r="C11" s="11">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[#All],3,FALSE),"")</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="11">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[#All],2,FALSE),"")</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="11">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[#All],3,FALSE),"")</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[#All],2,FALSE),"")</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="11">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[#All],3,FALSE),"")</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[#All],2,FALSE),"")</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="11">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[#All],3,FALSE),"")</f>
+        <v>26700</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[#All],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[#All],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[#All],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[#All],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="12">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="13">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="14">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -723,148 +1431,234 @@
     <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="E4" s="8">
-        <v>44961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="B3" s="30"/>
+      <c r="D3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="E4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="16">
+        <v>44963</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",(VLOOKUP($A11,テーブル1[#All],2,FALSE)))</f>
+        <v>折り畳みテーブル</v>
+      </c>
+      <c r="C11" s="11">
+        <f>IFERROR(VLOOKUP($A11,テーブル1[#All],3,FALSE),"")</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="11">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[#All],2,FALSE),"")</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="11">
+        <f>IFERROR(VLOOKUP($A12,テーブル1[#All],3,FALSE),"")</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[#All],2,FALSE),"")</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="11">
+        <f>IFERROR(VLOOKUP($A13,テーブル1[#All],3,FALSE),"")</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[#All],2,FALSE),"")</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="11">
+        <f>IFERROR(VLOOKUP($A14,テーブル1[#All],3,FALSE),"")</f>
+        <v>26700</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[#All],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>IFERROR(VLOOKUP($A15,テーブル1[#All],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="2" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[#All],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>IFERROR(VLOOKUP($A16,テーブル1[#All],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="12">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="13">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="14">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C17:D17"/>
@@ -876,7 +1670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -909,7 +1703,7 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="5">
         <v>15900</v>
       </c>
     </row>
@@ -920,7 +1714,7 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>19900</v>
       </c>
     </row>
@@ -931,7 +1725,7 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>49400</v>
       </c>
     </row>
@@ -942,7 +1736,7 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>9800</v>
       </c>
     </row>
@@ -953,7 +1747,7 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>14000</v>
       </c>
     </row>
@@ -964,7 +1758,7 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>25400</v>
       </c>
     </row>
@@ -975,7 +1769,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>12300</v>
       </c>
     </row>
@@ -986,7 +1780,7 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>26700</v>
       </c>
     </row>
@@ -997,7 +1791,7 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>3500</v>
       </c>
     </row>
